--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1074</v>
       </c>
       <c r="C2" t="n">
-        <v>9.31098696461825</v>
+        <v>984</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.56610800744879</v>
+      </c>
+      <c r="G2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" t="n">
-        <v>7.947019867549669</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>139</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>141</v>
       </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
       <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.622516556291391</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.298013245033113</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>92.05298013245033</v>
+      </c>
+      <c r="P2" t="n">
+        <v>93.37748344370861</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9205298013245033</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9586206896551724</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>95.22907296357378</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>87.40036335851441</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>1275</v>
       </c>
       <c r="C3" t="n">
-        <v>5.568627450980392</v>
+        <v>1212</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.333333333333334</v>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
-        <v>12.98701298701299</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>137</v>
       </c>
-      <c r="H3" t="n">
-        <v>145</v>
-      </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.03896103896104</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.740259740259742</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>88.96103896103897</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90.25974025974025</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.8961038961038961</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9452054794520548</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>92.09678547168716</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>76.79544246057716</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>2048</v>
       </c>
       <c r="C4" t="n">
-        <v>6.201171875</v>
+        <v>1999</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
+        <v>84</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.494140625</v>
+      </c>
+      <c r="G4" t="n">
         <v>324</v>
       </c>
-      <c r="F4" t="n">
-        <v>37.65432098765432</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>261</v>
       </c>
-      <c r="H4" t="n">
-        <v>305</v>
-      </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
+        <v>78</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.23456790123457</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80.55555555555556</v>
+      </c>
+      <c r="P4" t="n">
+        <v>82.09876543209876</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.8758620689655172</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.7839506172839507</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8273615635179153</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>74.87872149621658</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>52.68585843387833</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>2.240896358543417</v>
+        <v>355</v>
       </c>
       <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>2.801120448179272</v>
+      </c>
+      <c r="G5" t="n">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>38</v>
       </c>
-      <c r="H5" t="n">
-        <v>39</v>
-      </c>
       <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="M5" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>90.47619047619048</v>
+      </c>
+      <c r="P5" t="n">
+        <v>90.47619047619048</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.868421052631579</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.825</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>78.46691464780294</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>70.31640569501184</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1369</v>
       </c>
       <c r="C6" t="n">
-        <v>7.669831994156319</v>
+        <v>1278</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.035062089116144</v>
+      </c>
+      <c r="G6" t="n">
         <v>184</v>
       </c>
-      <c r="F6" t="n">
-        <v>11.95652173913044</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>174</v>
       </c>
-      <c r="H6" t="n">
-        <v>179</v>
-      </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.782608695652174</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.695652173913043</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>94.56521739130434</v>
+      </c>
+      <c r="P6" t="n">
+        <v>95.65217391304348</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9497206703910615</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.9239130434782609</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9366391184573003</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>95.44177169754671</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>83.97733330749668</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>755</v>
       </c>
       <c r="C7" t="n">
+        <v>751</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
         <v>3.04635761589404</v>
       </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
         <v>11.53846153846154</v>
       </c>
-      <c r="G7" t="n">
-        <v>96</v>
-      </c>
-      <c r="H7" t="n">
-        <v>104</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
+        <v>8.653846153846153</v>
+      </c>
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>12</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>92.30769230769231</v>
+      </c>
+      <c r="P7" t="n">
+        <v>95.19230769230769</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.8846153846153846</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.92</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>91.26961771519197</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>79.00594273309147</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1135</v>
       </c>
       <c r="C8" t="n">
-        <v>55.59471365638766</v>
+        <v>589</v>
       </c>
       <c r="D8" t="n">
-        <v>631</v>
+        <v>546</v>
       </c>
       <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>48.19383259911894</v>
+      </c>
+      <c r="G8" t="n">
         <v>127</v>
       </c>
-      <c r="F8" t="n">
-        <v>57.48031496062992</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>61</v>
       </c>
-      <c r="H8" t="n">
-        <v>69</v>
-      </c>
       <c r="I8" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>51.96850393700787</v>
+      </c>
+      <c r="M8" t="n">
+        <v>47.24409448818898</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>48.03149606299213</v>
+      </c>
+      <c r="P8" t="n">
+        <v>52.75590551181102</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.4803149606299212</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.648936170212766</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>57.70949267820724</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>28.480123452598</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1071</v>
       </c>
       <c r="C9" t="n">
-        <v>8.216619981325863</v>
+        <v>1038</v>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
+        <v>53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.029878618113912</v>
+      </c>
+      <c r="G9" t="n">
         <v>127</v>
       </c>
-      <c r="F9" t="n">
-        <v>25.98425196850393</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>115</v>
       </c>
-      <c r="H9" t="n">
-        <v>121</v>
-      </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="J9" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23.62204724409449</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.47244094488189</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>90.55118110236219</v>
+      </c>
+      <c r="P9" t="n">
+        <v>93.7007874015748</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.8760330578512396</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.8346456692913385</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8548387096774194</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>87.8464752580783</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>65.10564570745116</v>
       </c>
     </row>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Qwen7b/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0857</v>
+        <v>0.074</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0533</v>
+        <v>0.0477</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>1999</v>
+        <v>1972</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0649</v>
+        <v>0.0489</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -769,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.028</v>
+        <v>0.0288</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>1278</v>
+        <v>1255</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0804</v>
+        <v>0.0111</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0305</v>
+        <v>0.0163</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="C8" t="n">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4802</v>
+        <v>0.4648</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0803</v>
+        <v>0.0479</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
